--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_40_8.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_40_8.xlsx
@@ -518,496 +518,496 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_40_8_24</t>
+          <t>model_40_8_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9843869759212235</v>
+        <v>0.9759438617628756</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7843199793710858</v>
+        <v>0.8208512133744175</v>
       </c>
       <c r="D2" t="n">
-        <v>0.83731435028256</v>
+        <v>0.396614939769013</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9920281644115114</v>
+        <v>0.9396602721991364</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9652140027780192</v>
+        <v>0.9146259983383309</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1044043639061438</v>
+        <v>0.1608635071599825</v>
       </c>
       <c r="H2" t="n">
-        <v>1.442253291060728</v>
+        <v>1.197968761069583</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5320692956144566</v>
+        <v>0.2605747973296921</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1195096359240871</v>
+        <v>0.5263707879531415</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3257894106505146</v>
+        <v>0.3934728672646087</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1975285389315465</v>
+        <v>0.3974882617356219</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3231166413327296</v>
+        <v>0.4010779315295003</v>
       </c>
       <c r="N2" t="n">
-        <v>1.005133049012201</v>
+        <v>1.00790886736563</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3368723856979205</v>
+        <v>0.4181526494204865</v>
       </c>
       <c r="P2" t="n">
-        <v>198.5189676090798</v>
+        <v>197.6543981103655</v>
       </c>
       <c r="Q2" t="n">
-        <v>316.7499226212953</v>
+        <v>315.885353122581</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_40_8_23</t>
+          <t>model_40_8_10</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9844429640886283</v>
+        <v>0.9750309695260799</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7842575606173452</v>
+        <v>0.8208188562643122</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8377582224886564</v>
+        <v>0.3359871186081975</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9921022578757673</v>
+        <v>0.9335154411414099</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9653508001551072</v>
+        <v>0.9059701217015457</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1040299707729062</v>
+        <v>0.1669680217509169</v>
       </c>
       <c r="H3" t="n">
-        <v>1.442670685554402</v>
+        <v>1.198185133213848</v>
       </c>
       <c r="I3" t="n">
-        <v>0.530617595526276</v>
+        <v>0.2867572192237186</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1183988650308231</v>
+        <v>0.5799749337386338</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3245082302785495</v>
+        <v>0.4333661899702934</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1983752121936962</v>
+        <v>0.4050547476691891</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3225367742954378</v>
+        <v>0.4086172068708278</v>
       </c>
       <c r="N3" t="n">
-        <v>1.005114641943465</v>
+        <v>1.008208996320193</v>
       </c>
       <c r="O3" t="n">
-        <v>0.336267832520361</v>
+        <v>0.4260128873215458</v>
       </c>
       <c r="P3" t="n">
-        <v>198.5261524816962</v>
+        <v>197.5799059428454</v>
       </c>
       <c r="Q3" t="n">
-        <v>316.7571074939116</v>
+        <v>315.8108609550609</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_40_8_22</t>
+          <t>model_40_8_8</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.984504100859679</v>
+        <v>0.9767053163180236</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7841874184514723</v>
+        <v>0.8206719878894003</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8382488827378088</v>
+        <v>0.4609024378938997</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9921839792820388</v>
+        <v>0.9460252500801063</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9655018778929357</v>
+        <v>0.9236617018724884</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1036211489033813</v>
+        <v>0.1557716570435321</v>
       </c>
       <c r="H4" t="n">
-        <v>1.44313972654057</v>
+        <v>1.19916724271315</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5290128734527186</v>
+        <v>0.2328119259912594</v>
       </c>
       <c r="J4" t="n">
-        <v>0.11717373997621</v>
+        <v>0.4708462016711586</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3230933067144642</v>
+        <v>0.3518289931561034</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1993134723008066</v>
+        <v>0.3889555013502681</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3219023903349916</v>
+        <v>0.3946791824298972</v>
       </c>
       <c r="N4" t="n">
-        <v>1.005094542183119</v>
+        <v>1.00765852614202</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3356064415213628</v>
+        <v>0.4114814923244767</v>
       </c>
       <c r="P4" t="n">
-        <v>198.5340276599929</v>
+        <v>197.7187281618848</v>
       </c>
       <c r="Q4" t="n">
-        <v>316.7649826722084</v>
+        <v>315.9496831741003</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_40_8_21</t>
+          <t>model_40_8_11</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9845709226347795</v>
+        <v>0.9740238471886122</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7841085047324131</v>
+        <v>0.8206321774321019</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8387928218094725</v>
+        <v>0.2791909472102551</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9922742223079236</v>
+        <v>0.9276405854220683</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9656690786865724</v>
+        <v>0.8977492961362326</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1031743113855977</v>
+        <v>0.1737026534589357</v>
       </c>
       <c r="H5" t="n">
-        <v>1.443667422943283</v>
+        <v>1.199433455424415</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5272339010650503</v>
+        <v>0.3112849243768023</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1158208632079339</v>
+        <v>0.6312239623107623</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3215273821364921</v>
+        <v>0.4712544433437822</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2003614272407299</v>
+        <v>0.411775355911813</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3212075830138475</v>
+        <v>0.4167765030072301</v>
       </c>
       <c r="N5" t="n">
-        <v>1.005072573380347</v>
+        <v>1.008540105033881</v>
       </c>
       <c r="O5" t="n">
-        <v>0.334882054814108</v>
+        <v>0.4345195415865462</v>
       </c>
       <c r="P5" t="n">
-        <v>198.5426707552055</v>
+        <v>197.5008206594993</v>
       </c>
       <c r="Q5" t="n">
-        <v>316.773625767421</v>
+        <v>315.7317756717148</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_40_8_20</t>
+          <t>model_40_8_12</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9846436672248262</v>
+        <v>0.9729662305309744</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7840196528085912</v>
+        <v>0.8203360255004886</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8393947723833912</v>
+        <v>0.2262527309784704</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9923736348599262</v>
+        <v>0.922069502515817</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9658537474396581</v>
+        <v>0.889996663713825</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1026878679769979</v>
+        <v>0.1807749409184369</v>
       </c>
       <c r="H6" t="n">
-        <v>1.444261576167005</v>
+        <v>1.201413824754767</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5252651999631649</v>
+        <v>0.33414655267153</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1143305216467927</v>
+        <v>0.6798230429826808</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3197978608049788</v>
+        <v>0.5069848817526785</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2015146729448477</v>
+        <v>0.4177467869252862</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3204494780413878</v>
+        <v>0.4251763644870643</v>
       </c>
       <c r="N6" t="n">
-        <v>1.005048657350742</v>
+        <v>1.008887814619954</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3340916757434771</v>
+        <v>0.4432770025596873</v>
       </c>
       <c r="P6" t="n">
-        <v>198.5521225994534</v>
+        <v>197.4210048834898</v>
       </c>
       <c r="Q6" t="n">
-        <v>316.7830776116689</v>
+        <v>315.6519598957053</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_40_8_19</t>
+          <t>model_40_8_7</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9847226880776254</v>
+        <v>0.9772419030660778</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7839194477680488</v>
+        <v>0.8202087930039776</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8400605124726399</v>
+        <v>0.5285189824759288</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9924831809311201</v>
+        <v>0.9525423405353106</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9660576610798088</v>
+        <v>0.932997285179789</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1021594551704717</v>
+        <v>0.1521834989885385</v>
       </c>
       <c r="H7" t="n">
-        <v>1.444931647734514</v>
+        <v>1.202264629044788</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5230878729465283</v>
+        <v>0.2036113896142875</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1126882636072265</v>
+        <v>0.4139946684758313</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3178881008454078</v>
+        <v>0.3088030290450594</v>
       </c>
       <c r="L7" t="n">
-        <v>0.202803707293056</v>
+        <v>0.379330180901684</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3196239277189236</v>
+        <v>0.3901070352974149</v>
       </c>
       <c r="N7" t="n">
-        <v>1.005022677892287</v>
+        <v>1.007482114060468</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3332309800346608</v>
+        <v>0.4067146994229152</v>
       </c>
       <c r="P7" t="n">
-        <v>198.5624408007448</v>
+        <v>197.7653365121291</v>
       </c>
       <c r="Q7" t="n">
-        <v>316.7933958129603</v>
+        <v>315.9962915243445</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_40_8_18</t>
+          <t>model_40_8_13</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9848082261301284</v>
+        <v>0.9718913589266736</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7838062861307417</v>
+        <v>0.8199654151658105</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8407964275260735</v>
+        <v>0.1771283905719214</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9926036854267519</v>
+        <v>0.9168227467319754</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9662825965583325</v>
+        <v>0.8827296542743055</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1015874618195177</v>
+        <v>0.1879626122857248</v>
       </c>
       <c r="H8" t="n">
-        <v>1.445688360124248</v>
+        <v>1.203892097769263</v>
       </c>
       <c r="I8" t="n">
-        <v>0.520681036173939</v>
+        <v>0.3553611399874489</v>
       </c>
       <c r="J8" t="n">
-        <v>0.110881722536438</v>
+        <v>0.7255928712002162</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3157814601613709</v>
+        <v>0.5404771743119311</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2042344616884771</v>
+        <v>0.4230622985318383</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3187278805180333</v>
+        <v>0.4335465514633058</v>
       </c>
       <c r="N8" t="n">
-        <v>1.004994555792835</v>
+        <v>1.009241197065203</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3322967862493552</v>
+        <v>0.4520035257241831</v>
       </c>
       <c r="P8" t="n">
-        <v>198.5736703174825</v>
+        <v>197.3430244135004</v>
       </c>
       <c r="Q8" t="n">
-        <v>316.804625329698</v>
+        <v>315.5739794257159</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_40_8_17</t>
+          <t>model_40_8_14</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9849004530457739</v>
+        <v>0.9708239965031722</v>
       </c>
       <c r="C9" t="n">
-        <v>0.783678358019775</v>
+        <v>0.8195473375164788</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8416091643506782</v>
+        <v>0.1317126131997678</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9927360669941322</v>
+        <v>0.9119103708516536</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9665304617129601</v>
+        <v>0.8759528954805216</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1009707400099309</v>
+        <v>0.1951000697264306</v>
       </c>
       <c r="H9" t="n">
-        <v>1.446543815991337</v>
+        <v>1.206687784935415</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5180229510229841</v>
+        <v>0.3749741661697495</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1088971265490947</v>
+        <v>0.7684457519984286</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3134600708353264</v>
+        <v>0.5717099929856744</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2058221055879744</v>
+        <v>0.42779529058199</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3177589338003431</v>
+        <v>0.4417013354365488</v>
       </c>
       <c r="N9" t="n">
-        <v>1.004964234615088</v>
+        <v>1.009592110738683</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3312865894638968</v>
+        <v>0.460505475733897</v>
       </c>
       <c r="P9" t="n">
-        <v>198.5858490139697</v>
+        <v>197.26848534793</v>
       </c>
       <c r="Q9" t="n">
-        <v>316.8168040261851</v>
+        <v>315.4994403601454</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_40_8_16</t>
+          <t>model_40_8_6</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.984999505396809</v>
+        <v>0.9774599166419481</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7835334686343396</v>
+        <v>0.8193703566974075</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8425062600263632</v>
+        <v>0.5989023139736075</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9928814202838045</v>
+        <v>0.959122127253369</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9668034394059078</v>
+        <v>0.9425218135654079</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1003083764824647</v>
+        <v>0.150725641202834</v>
       </c>
       <c r="H10" t="n">
-        <v>1.447512691978898</v>
+        <v>1.207871256487466</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5150889672014886</v>
+        <v>0.1732160027391547</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1067180652104242</v>
+        <v>0.3565962073694415</v>
       </c>
       <c r="K10" t="n">
-        <v>0.310903489198794</v>
+        <v>0.2649062522712088</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2075890292155696</v>
+        <v>0.3684621641044471</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3167149767258642</v>
+        <v>0.3882340031512361</v>
       </c>
       <c r="N10" t="n">
-        <v>1.004931669458583</v>
+        <v>1.007410438364291</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3301981889754683</v>
+        <v>0.4047619284205625</v>
       </c>
       <c r="P10" t="n">
-        <v>198.5990121464392</v>
+        <v>197.7845880809835</v>
       </c>
       <c r="Q10" t="n">
-        <v>316.8299671586546</v>
+        <v>316.015543093199</v>
       </c>
     </row>
     <row r="11">
@@ -1017,657 +1017,657 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.985105409439382</v>
+        <v>0.9697821912953815</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7833691393999275</v>
+        <v>0.8191025454186199</v>
       </c>
       <c r="D11" t="n">
-        <v>0.843496770529327</v>
+        <v>0.0898594078246796</v>
       </c>
       <c r="E11" t="n">
-        <v>0.993040728728328</v>
+        <v>0.9073341127560399</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9671038876600738</v>
+        <v>0.8696611638682562</v>
       </c>
       <c r="G11" t="n">
-        <v>0.09960019566213635</v>
+        <v>0.202066625947999</v>
       </c>
       <c r="H11" t="n">
-        <v>1.448611562326078</v>
+        <v>1.209662111741877</v>
       </c>
       <c r="I11" t="n">
-        <v>0.511849466812081</v>
+        <v>0.3930486781638592</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1043297954081558</v>
+        <v>0.8083665250522087</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3080896311101184</v>
+        <v>0.6007074117472802</v>
       </c>
       <c r="L11" t="n">
-        <v>0.209547033509431</v>
+        <v>0.4320085353939164</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3155949867506395</v>
+        <v>0.4495182153684087</v>
       </c>
       <c r="N11" t="n">
-        <v>1.004896851691162</v>
+        <v>1.009934622039875</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3290305187082994</v>
+        <v>0.4686551364276283</v>
       </c>
       <c r="P11" t="n">
-        <v>198.6131822998285</v>
+        <v>197.1983156090753</v>
       </c>
       <c r="Q11" t="n">
-        <v>316.8441373120439</v>
+        <v>315.4292706212907</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_40_8_14</t>
+          <t>model_40_8_16</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.985217874987984</v>
+        <v>0.9687785828878472</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7831823416206765</v>
+        <v>0.8186466140143824</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8445883457383737</v>
+        <v>0.05138948804663945</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9932151057977024</v>
+        <v>0.9030888751554789</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9674340454250283</v>
+        <v>0.8638411266338036</v>
       </c>
       <c r="G12" t="n">
-        <v>0.09884813802077794</v>
+        <v>0.2087777599903722</v>
       </c>
       <c r="H12" t="n">
-        <v>1.449860679936055</v>
+        <v>1.212710927141383</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5082794306497247</v>
+        <v>0.4096621016808665</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1017156245759651</v>
+        <v>0.8453996563290058</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3049975276128449</v>
+        <v>0.6275308790049362</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2117214666301339</v>
+        <v>0.4357661713719317</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3144012373079628</v>
+        <v>0.4569220502343613</v>
       </c>
       <c r="N12" t="n">
-        <v>1.004859876716279</v>
+        <v>1.010264575488927</v>
       </c>
       <c r="O12" t="n">
-        <v>0.3277859488804459</v>
+        <v>0.4763741678718756</v>
       </c>
       <c r="P12" t="n">
-        <v>198.6283411319077</v>
+        <v>197.1329698842054</v>
       </c>
       <c r="Q12" t="n">
-        <v>316.8592961441232</v>
+        <v>315.3639248964208</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_40_8_13</t>
+          <t>model_40_8_17</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.985336411574171</v>
+        <v>0.9678218821790746</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7829697345921218</v>
+        <v>0.8181912640586146</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8457899154981403</v>
+        <v>0.01611632828069176</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9934056579338547</v>
+        <v>0.8991655975062346</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9677963545569639</v>
+        <v>0.85847560102034</v>
       </c>
       <c r="G13" t="n">
-        <v>0.09805548332313538</v>
+        <v>0.2151752220351367</v>
       </c>
       <c r="H13" t="n">
-        <v>1.451282384114965</v>
+        <v>1.215755854392296</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5043496533348782</v>
+        <v>0.424894988709377</v>
       </c>
       <c r="J13" t="n">
-        <v>0.09885896550876239</v>
+        <v>0.8796241850575246</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3016043094218203</v>
+        <v>0.6522595868834509</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2141363798574252</v>
+        <v>0.4391193401024692</v>
       </c>
       <c r="M13" t="n">
-        <v>0.3131381217979302</v>
+        <v>0.463869833072961</v>
       </c>
       <c r="N13" t="n">
-        <v>1.004820905783834</v>
+        <v>1.010579107228797</v>
       </c>
       <c r="O13" t="n">
-        <v>0.3264690599281417</v>
+        <v>0.4836177322098077</v>
       </c>
       <c r="P13" t="n">
-        <v>198.6444436083182</v>
+        <v>197.0726051931309</v>
       </c>
       <c r="Q13" t="n">
-        <v>316.8753986205336</v>
+        <v>315.3035602053464</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_40_8_12</t>
+          <t>model_40_8_5</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9854602145544369</v>
+        <v>0.9772407819050238</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7827271738928333</v>
+        <v>0.8180420935784517</v>
       </c>
       <c r="D14" t="n">
-        <v>0.847111478583231</v>
+        <v>0.671144500344459</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9936134087305651</v>
+        <v>0.965652489084437</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9681933823595287</v>
+        <v>0.9520867198877828</v>
       </c>
       <c r="G14" t="n">
-        <v>0.09722761222403632</v>
+        <v>0.1521909961976686</v>
       </c>
       <c r="H14" t="n">
-        <v>1.452904388627996</v>
+        <v>1.216753358080013</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5000274335139195</v>
+        <v>0.1420178602710066</v>
       </c>
       <c r="J14" t="n">
-        <v>0.09574447301801638</v>
+        <v>0.2996289019486637</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2978859323695808</v>
+        <v>0.2208233811098351</v>
       </c>
       <c r="L14" t="n">
-        <v>0.216820517132104</v>
+        <v>0.3561714752328451</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3118134253428423</v>
+        <v>0.3901166443484161</v>
       </c>
       <c r="N14" t="n">
-        <v>1.004780203434158</v>
+        <v>1.007482482661362</v>
       </c>
       <c r="O14" t="n">
-        <v>0.325087968402461</v>
+        <v>0.4067247175511111</v>
       </c>
       <c r="P14" t="n">
-        <v>198.6614010629577</v>
+        <v>197.765237986014</v>
       </c>
       <c r="Q14" t="n">
-        <v>316.8923560751731</v>
+        <v>315.9961929982295</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_40_8_11</t>
+          <t>model_40_8_18</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9855881190624222</v>
+        <v>0.9669174119808623</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7824498246007678</v>
+        <v>0.8177448884295822</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8485637070562289</v>
+        <v>-0.01616599448830103</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9938395283825887</v>
+        <v>0.8955511520537721</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9686279173554666</v>
+        <v>0.8535424947938512</v>
       </c>
       <c r="G15" t="n">
-        <v>0.09637231419019272</v>
+        <v>0.2212234184152846</v>
       </c>
       <c r="H15" t="n">
-        <v>1.454759024621114</v>
+        <v>1.218740770279007</v>
       </c>
       <c r="I15" t="n">
-        <v>0.495277867820564</v>
+        <v>0.4388362681133479</v>
       </c>
       <c r="J15" t="n">
-        <v>0.09235460414921631</v>
+        <v>0.9111546305892846</v>
       </c>
       <c r="K15" t="n">
-        <v>0.293816280453891</v>
+        <v>0.6749953543732964</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2197944607456108</v>
+        <v>0.4421091784890119</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3104389057289578</v>
+        <v>0.4703439363011759</v>
       </c>
       <c r="N15" t="n">
-        <v>1.004738152637012</v>
+        <v>1.010876467293963</v>
       </c>
       <c r="O15" t="n">
-        <v>0.3236549326429655</v>
+        <v>0.4903674514156889</v>
       </c>
       <c r="P15" t="n">
-        <v>198.6790726316237</v>
+        <v>197.0171642901352</v>
       </c>
       <c r="Q15" t="n">
-        <v>316.9100276438391</v>
+        <v>315.2481193023507</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_40_8_10</t>
+          <t>model_40_8_19</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9857182300669993</v>
+        <v>0.9660682327547135</v>
       </c>
       <c r="C16" t="n">
-        <v>0.782132144362222</v>
+        <v>0.817313564274059</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8501564114916327</v>
+        <v>-0.04565194995230737</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9940849436831444</v>
+        <v>0.8922305323857053</v>
       </c>
       <c r="F16" t="n">
-        <v>0.969102435219919</v>
+        <v>0.8490184331437856</v>
       </c>
       <c r="G16" t="n">
-        <v>0.09550226130347939</v>
+        <v>0.2269018838106525</v>
       </c>
       <c r="H16" t="n">
-        <v>1.456883353839053</v>
+        <v>1.221625036893056</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4900688704164339</v>
+        <v>0.4515699225829573</v>
       </c>
       <c r="J16" t="n">
-        <v>0.08867546489777908</v>
+        <v>0.9401219006595355</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2893721676571065</v>
+        <v>0.6958459116212463</v>
       </c>
       <c r="L16" t="n">
-        <v>0.2230969914953967</v>
+        <v>0.4447867145306528</v>
       </c>
       <c r="M16" t="n">
-        <v>0.3090344014887006</v>
+        <v>0.476342191927875</v>
       </c>
       <c r="N16" t="n">
-        <v>1.004695376416329</v>
+        <v>1.0111556495053</v>
       </c>
       <c r="O16" t="n">
-        <v>0.322190635749476</v>
+        <v>0.4966210652025175</v>
       </c>
       <c r="P16" t="n">
-        <v>198.6972107064106</v>
+        <v>196.9664751696961</v>
       </c>
       <c r="Q16" t="n">
-        <v>316.9281657186261</v>
+        <v>315.1974301819115</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_40_8_9</t>
+          <t>model_40_8_20</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9858480394882646</v>
+        <v>0.9652754279311938</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7817673701191258</v>
+        <v>0.8169014215087222</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8519001100071644</v>
+        <v>-0.07254762371714296</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9943506855528074</v>
+        <v>0.8891872515552715</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9696195765378754</v>
+        <v>0.8448782039317708</v>
       </c>
       <c r="G17" t="n">
-        <v>0.094634225105761</v>
+        <v>0.2322033733160596</v>
       </c>
       <c r="H17" t="n">
-        <v>1.459322600882269</v>
+        <v>1.224381037462606</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4843660414174759</v>
+        <v>0.4631849511977437</v>
       </c>
       <c r="J17" t="n">
-        <v>0.084691600235659</v>
+        <v>0.9666698183757838</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2845288634929355</v>
+        <v>0.714927456675677</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2267646905602068</v>
+        <v>0.4471726462720987</v>
       </c>
       <c r="M17" t="n">
-        <v>0.30762676266177</v>
+        <v>0.4818748523383012</v>
       </c>
       <c r="N17" t="n">
-        <v>1.004652699346324</v>
+        <v>1.011416297666457</v>
       </c>
       <c r="O17" t="n">
-        <v>0.320723070823469</v>
+        <v>0.5023892624208015</v>
       </c>
       <c r="P17" t="n">
-        <v>198.7154721615327</v>
+        <v>196.9202833643845</v>
       </c>
       <c r="Q17" t="n">
-        <v>316.9464271737481</v>
+        <v>315.1512383766</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_40_8_8</t>
+          <t>model_40_8_21</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9859741326362403</v>
+        <v>0.9645387957719254</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7813476474439542</v>
+        <v>0.8165110643143926</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8538059523211639</v>
+        <v>-0.09703928231834857</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9946374645581131</v>
+        <v>0.886403688365615</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9701818752248135</v>
+        <v>0.8410963984712407</v>
       </c>
       <c r="G18" t="n">
-        <v>0.09379103964464136</v>
+        <v>0.2371292359569667</v>
       </c>
       <c r="H18" t="n">
-        <v>1.462129288343786</v>
+        <v>1.226991357818518</v>
       </c>
       <c r="I18" t="n">
-        <v>0.478132915266994</v>
+        <v>0.4737617940745528</v>
       </c>
       <c r="J18" t="n">
-        <v>0.08039235771687778</v>
+        <v>0.9909521014230703</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2792626364919359</v>
+        <v>0.7323570934389706</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2308350162367231</v>
+        <v>0.4493141154175336</v>
       </c>
       <c r="M18" t="n">
-        <v>0.3062532279742393</v>
+        <v>0.4869591727824487</v>
       </c>
       <c r="N18" t="n">
-        <v>1.004611244064798</v>
+        <v>1.011658478102381</v>
       </c>
       <c r="O18" t="n">
-        <v>0.3192910619206812</v>
+        <v>0.5076900329122507</v>
       </c>
       <c r="P18" t="n">
-        <v>198.7333719074188</v>
+        <v>196.8782999741444</v>
       </c>
       <c r="Q18" t="n">
-        <v>316.9643269196343</v>
+        <v>315.1092549863599</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_40_8_7</t>
+          <t>model_40_8_22</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9860918178924433</v>
+        <v>0.9638570562758114</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7808633781501421</v>
+        <v>0.8161440724194003</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8558832475453453</v>
+        <v>-0.1193202567466938</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9949459738739926</v>
+        <v>0.8838625086227879</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9707914978155869</v>
+        <v>0.8376476021790069</v>
       </c>
       <c r="G19" t="n">
-        <v>0.09300407779452201</v>
+        <v>0.2416880311066021</v>
       </c>
       <c r="H19" t="n">
-        <v>1.465367599341363</v>
+        <v>1.229445434310173</v>
       </c>
       <c r="I19" t="n">
-        <v>0.4713390461787669</v>
+        <v>0.4833839421498656</v>
       </c>
       <c r="J19" t="n">
-        <v>0.07576734562139595</v>
+        <v>1.013119963830022</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2735531959000814</v>
+        <v>0.7482519529899438</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2353548607853212</v>
+        <v>0.4512253826870347</v>
       </c>
       <c r="M19" t="n">
-        <v>0.3049656993737526</v>
+        <v>0.4916177693153514</v>
       </c>
       <c r="N19" t="n">
-        <v>1.004572553021662</v>
+        <v>1.01188261163535</v>
       </c>
       <c r="O19" t="n">
-        <v>0.3179487205621201</v>
+        <v>0.5125469555441833</v>
       </c>
       <c r="P19" t="n">
-        <v>198.7502238790744</v>
+        <v>196.840215024248</v>
       </c>
       <c r="Q19" t="n">
-        <v>316.9811788912899</v>
+        <v>315.0711700364635</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_40_8_6</t>
+          <t>model_40_8_4</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9861950658783841</v>
+        <v>0.9764357905536613</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7803033431547162</v>
+        <v>0.8160803010611418</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8581424808848896</v>
+        <v>0.7438914201086617</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9952764786547069</v>
+        <v>0.9719982336582388</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9714504890659045</v>
+        <v>0.9615005007739039</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0923136580371223</v>
+        <v>0.1575739770708746</v>
       </c>
       <c r="H20" t="n">
-        <v>1.4691125559345</v>
+        <v>1.229871873676488</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4639501419103949</v>
+        <v>0.1106017462116698</v>
       </c>
       <c r="J20" t="n">
-        <v>0.07081258889367693</v>
+        <v>0.2442720965204894</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2673813914899688</v>
+        <v>0.1774370189273318</v>
       </c>
       <c r="L20" t="n">
-        <v>0.2403677403028367</v>
+        <v>0.3422495111383012</v>
       </c>
       <c r="M20" t="n">
-        <v>0.3038316277761785</v>
+        <v>0.3969558880667657</v>
       </c>
       <c r="N20" t="n">
-        <v>1.004538608478339</v>
+        <v>1.007747137352221</v>
       </c>
       <c r="O20" t="n">
-        <v>0.3167663691887855</v>
+        <v>0.413855122033737</v>
       </c>
       <c r="P20" t="n">
-        <v>198.7651263480409</v>
+        <v>197.6957204706017</v>
       </c>
       <c r="Q20" t="n">
-        <v>316.9960813602564</v>
+        <v>315.9266754828172</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_40_8_5</t>
+          <t>model_40_8_23</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9862758104336208</v>
+        <v>0.9632282517619869</v>
       </c>
       <c r="C21" t="n">
-        <v>0.779654005992399</v>
+        <v>0.8158009563191997</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8605909089870121</v>
+        <v>-0.1395666559771942</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9956290052880469</v>
+        <v>0.8815461052023681</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9721601454981423</v>
+        <v>0.8345068434339022</v>
       </c>
       <c r="G21" t="n">
-        <v>0.09177371882446027</v>
+        <v>0.2458928497859258</v>
       </c>
       <c r="H21" t="n">
-        <v>1.473454676528838</v>
+        <v>1.231739853252119</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4559424693349613</v>
+        <v>0.492127448948201</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0655276919416074</v>
+        <v>1.033327000521465</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2607350806382843</v>
+        <v>0.762727124877987</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2459282372142212</v>
+        <v>0.4529364927965882</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3029417746440069</v>
+        <v>0.4958758410992875</v>
       </c>
       <c r="N21" t="n">
-        <v>1.004512062323193</v>
+        <v>1.01208934188647</v>
       </c>
       <c r="O21" t="n">
-        <v>0.3158386331665274</v>
+        <v>0.5169863022593851</v>
       </c>
       <c r="P21" t="n">
-        <v>198.7768586193179</v>
+        <v>196.8057188158277</v>
       </c>
       <c r="Q21" t="n">
-        <v>317.0078136315335</v>
+        <v>315.0366738280431</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_40_8_4</t>
+          <t>model_40_8_24</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9863237559276942</v>
+        <v>0.962650112171857</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7788991388417592</v>
+        <v>0.8154818907853905</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8632355491725417</v>
+        <v>-0.1579411791846086</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9960030563543663</v>
+        <v>0.879437979402679</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9729212837638519</v>
+        <v>0.8316508760538392</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0914531070848224</v>
+        <v>0.2497588718872121</v>
       </c>
       <c r="H22" t="n">
-        <v>1.47850247664101</v>
+        <v>1.233873445945863</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4472930780511423</v>
+        <v>0.5000625769060739</v>
       </c>
       <c r="J22" t="n">
-        <v>0.05992011182324747</v>
+        <v>1.051717137148346</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2536066149678393</v>
+        <v>0.7758897464252457</v>
       </c>
       <c r="L22" t="n">
-        <v>0.2520944097946169</v>
+        <v>0.4544699126013231</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3024121477137161</v>
+        <v>0.4997588137163888</v>
       </c>
       <c r="N22" t="n">
-        <v>1.004496299421032</v>
+        <v>1.012279415176376</v>
       </c>
       <c r="O22" t="n">
-        <v>0.3152864589213352</v>
+        <v>0.5210345810596578</v>
       </c>
       <c r="P22" t="n">
-        <v>198.7838578578905</v>
+        <v>196.774518678025</v>
       </c>
       <c r="Q22" t="n">
-        <v>317.014812870106</v>
+        <v>315.0054736902404</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9863253739832204</v>
+        <v>0.9748590063688104</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7780191613410684</v>
+        <v>0.8133044418441816</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8660771653756663</v>
+        <v>0.8151331416094488</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9963974991502371</v>
+        <v>0.9780016380314565</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9737331398878498</v>
+        <v>0.9705198207180399</v>
       </c>
       <c r="G23" t="n">
-        <v>0.09144228714006809</v>
+        <v>0.1681179401753959</v>
       </c>
       <c r="H23" t="n">
-        <v>1.484386890240053</v>
+        <v>1.248434057041957</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4379994695845748</v>
+        <v>0.07983565940405246</v>
       </c>
       <c r="J23" t="n">
-        <v>0.05400682944252682</v>
+        <v>0.1919016797900595</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2460031495135508</v>
+        <v>0.1358686537327386</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2589368085525701</v>
+        <v>0.3264625685772634</v>
       </c>
       <c r="M23" t="n">
-        <v>0.3023942577828952</v>
+        <v>0.4100218776789794</v>
       </c>
       <c r="N23" t="n">
-        <v>1.004495767457571</v>
+        <v>1.00826553215272</v>
       </c>
       <c r="O23" t="n">
-        <v>0.3152678073791221</v>
+        <v>0.4274773578740698</v>
       </c>
       <c r="P23" t="n">
-        <v>198.7840944946809</v>
+        <v>197.566179042059</v>
       </c>
       <c r="Q23" t="n">
-        <v>317.0150495068964</v>
+        <v>315.7971340542745</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9862636221328053</v>
+        <v>0.9722788547168559</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7769905087387485</v>
+        <v>0.8094867494221637</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8691156556492643</v>
+        <v>0.8819124967563099</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9968104490815672</v>
+        <v>0.9834862395812877</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9745941813110719</v>
+        <v>0.9788390489631061</v>
       </c>
       <c r="G24" t="n">
-        <v>0.09185522204813559</v>
+        <v>0.1853714261525212</v>
       </c>
       <c r="H24" t="n">
-        <v>1.491265494928275</v>
+        <v>1.273962983846848</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4280619773570016</v>
+        <v>0.05099666739033006</v>
       </c>
       <c r="J24" t="n">
-        <v>0.04781609765932339</v>
+        <v>0.1440570151783581</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2379390375081625</v>
+        <v>0.09752688074209023</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2665206397474609</v>
+        <v>0.3085284174762112</v>
       </c>
       <c r="M24" t="n">
-        <v>0.3030762644090355</v>
+        <v>0.4305478209822008</v>
       </c>
       <c r="N24" t="n">
-        <v>1.00451606943579</v>
+        <v>1.009113801188979</v>
       </c>
       <c r="O24" t="n">
-        <v>0.3159788484392855</v>
+        <v>0.4488771330782695</v>
       </c>
       <c r="P24" t="n">
-        <v>198.7750832296949</v>
+        <v>197.3707875154506</v>
       </c>
       <c r="Q24" t="n">
-        <v>317.0060382419104</v>
+        <v>315.601742527666</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9861164695769051</v>
+        <v>0.9684065567910733</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7757844886845532</v>
+        <v>0.8043360247039307</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8723415083463317</v>
+        <v>0.9398847880913973</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9972388444794881</v>
+        <v>0.988261912228057</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9755002989732717</v>
+        <v>0.9860747533318913</v>
       </c>
       <c r="G25" t="n">
-        <v>0.09283923186701502</v>
+        <v>0.2112655002125221</v>
       </c>
       <c r="H25" t="n">
-        <v>1.499330156583891</v>
+        <v>1.308405903754579</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4175117095536292</v>
+        <v>0.02596104907456438</v>
       </c>
       <c r="J25" t="n">
-        <v>0.04139381542974378</v>
+        <v>0.1023966586321317</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2294527624916864</v>
+        <v>0.06417886742127157</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2749269832051212</v>
+        <v>0.2881110721975981</v>
       </c>
       <c r="M25" t="n">
-        <v>0.3046953098868032</v>
+        <v>0.4596362694702433</v>
       </c>
       <c r="N25" t="n">
-        <v>1.004564448358278</v>
+        <v>1.010386885438551</v>
       </c>
       <c r="O25" t="n">
-        <v>0.3176668200349279</v>
+        <v>0.4792039370398374</v>
       </c>
       <c r="P25" t="n">
-        <v>198.7537719426779</v>
+        <v>197.109279283299</v>
       </c>
       <c r="Q25" t="n">
-        <v>316.9847269548934</v>
+        <v>315.3402342955144</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9858558494389575</v>
+        <v>0.9628793635563566</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7743661993341804</v>
+        <v>0.7974734413742752</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8757372767052946</v>
+        <v>0.9825516065056974</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9976782000532213</v>
+        <v>0.9921303073865113</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9764448567640758</v>
+        <v>0.9917347407850957</v>
       </c>
       <c r="G26" t="n">
-        <v>0.09458199992951562</v>
+        <v>0.2482258668234575</v>
       </c>
       <c r="H26" t="n">
-        <v>1.508814264000457</v>
+        <v>1.354296030079276</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4064057264385768</v>
+        <v>0.007535174299420156</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0348072239132439</v>
+        <v>0.06865089474022701</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2206064751759104</v>
+        <v>0.03809303978583155</v>
       </c>
       <c r="L26" t="n">
-        <v>0.2842438636227884</v>
+        <v>0.2648577466599846</v>
       </c>
       <c r="M26" t="n">
-        <v>0.3075418669539411</v>
+        <v>0.4982227080568062</v>
       </c>
       <c r="N26" t="n">
-        <v>1.004650131691302</v>
+        <v>1.012204044858184</v>
       </c>
       <c r="O26" t="n">
-        <v>0.3206345609295994</v>
+        <v>0.5194330802019699</v>
       </c>
       <c r="P26" t="n">
-        <v>198.716576193231</v>
+        <v>196.7868323879619</v>
       </c>
       <c r="Q26" t="n">
-        <v>316.9475312054465</v>
+        <v>315.0177874001773</v>
       </c>
     </row>
   </sheetData>
